--- a/judgment-data/ES-judgment-data.xlsx
+++ b/judgment-data/ES-judgment-data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="586" documentId="11_2422D7BECEB3F540E0BB5CA169504FA9DEF10FC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FD69D49-158D-4D70-88C3-B7824413421C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divet_xe6m4oi\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D16620-C01B-43CF-97D5-B7A24447936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-7-data" sheetId="8" r:id="rId1"/>
@@ -54,810 +59,450 @@
     <t xml:space="preserve"> ES_063l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_063l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">001F_M6g_ES_063r_17.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_063r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_063r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">002F_M3o_ES_102r_8.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_102r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_102r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">003F_M2r_ES_093l_16.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_093l_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_ES_093l_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">004F_M4r_ES_101l_14.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_101l_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_101l_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">005F_M2l_ES_101l_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_101l_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">006F_M6m_ES_102l_26.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_102l_26.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_102l_26.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">007F_M2o_ES_070r_31.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_070r_31.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_070r_31.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">008F_M6m_ES_102r_12.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_102r_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_102r_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">009F_M4d_ES_093l_10.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_093l_10.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_ES_093l_10.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">010F_M1o_ES_063r_32.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_063r_32.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_063r_32.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">011F_M6m_ES_101l_6.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_101l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_101l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">012F_M4r_ES_063r_16.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_063r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_063r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">013F_M2l_ES_063r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_063r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">014F_M1o_ES_063r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_063r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">015F_M5r_ES_070l_3.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_070l_3.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_070l_3.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">016F_M6g_ES_063l_12.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_063l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_063l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">017F_M3l_ES_063r_32.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_063r_32.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">018F_M2r_ES_093l_5.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_093l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_ES_093l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">019F_M4o_ES_075r_17.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_075r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_ES_075r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">020F_M4l_ES_102r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_102r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">021F_M3o_ES_070r_1.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_070r_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_070r_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">022F_M6g_ES_075r_8.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_075r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_075r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">023F_M3r_ES_093l_10.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_ES_093l_10.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">024F_M2r_ES_093l_15.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_093l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_ES_093l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">025F_M5r_ES_102l_26.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_102l_26.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">026F_M5o_ES_093l_10.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_ES_093l_10.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">027F_M1d_ES_070r_31.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_070r_31.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">028F_M6g_ES_070l_3.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_070l_3.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">029F_M1o_ES_101l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_101l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">030F_M6g_ES_075r_6.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_075r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_075r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">031F_M4d_ES_093l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_ES_093l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">032F_M6m_ES_102r_18.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_102r_18.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_102r_18.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">033F_M3d_ES_075r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_ES_075r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">034F_M3l_ES_101l_1.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_101l_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_101l_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">035F_M6m_ES_101l_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_101l_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">036F_M6m_ES_101l_12.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_101l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_101l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">037F_M2o_ES_102r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_102r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">038F_M5r_ES_070r_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_070r_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">039F_M2o_ES_070r_14.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_070r_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_070r_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">040F_M3r_ES_093l_6.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_093l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_ES_093l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">041F_M4r_ES_101l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_101l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">042F_M5o_ES_093l_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_ES_093l_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">043F_M1d_ES_102r_9.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_102r_9.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_102r_9.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">044F_M6g_ES_063l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_063l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">045F_M5l_ES_075r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_ES_075r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">046F_M5r_ES_102r_9.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_102r_9.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">047F_M3l_ES_101l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_101l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">048F_M2d_ES_075r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_ES_075r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">049F_M4o_ES_075r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_ES_075r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">050F_M1l_ES_093l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_ES_093l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">051F_M2l_ES_063r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_063r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">052F_M1d_ES_070l_3.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_070l_3.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">053F_M1l_ES_093l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_ES_093l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">054F_M2r_ES_093l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_ES_093l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">055F_M5d_ES_063l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_063l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">056F_M6g_ES_063r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_063r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">057F_M2l_ES_101l_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_101l_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">058F_M6m_ES_102r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_102r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">059F_M5o_ES_093l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_ES_093l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">060F_M2d_ES_075r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_ES_075r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">061F_M2l_ES_101l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_101l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">062F_M6g_ES_075r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_075r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">063F_M5d_ES_101l_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_101l_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">064F_M2o_ES_070l_3.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_070l_3.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">065F_M3r_ES_093l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_ES_093l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">066F_M5d_ES_063r_32.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_063r_32.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">067F_M5l_ES_075r_5.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_075r_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_ES_075r_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">068F_M5l_ES_075r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_ES_075r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">069F_M2d_ES_075r_16.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_075r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_ES_075r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">070F_M5d_ES_063r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_063r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">071F_M2l_ES_063r_32.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_063r_32.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">072F_M1o_ES_101l_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_101l_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">073F_M4l_ES_102r_18.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_102r_18.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">074F_M2r_ES_093l_10.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_ES_093l_10.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">075F_M1r_ES_075r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_ES_075r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">076F_M5r_ES_070r_31.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_070r_31.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">077F_M4d_ES_093l_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_ES_093l_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">078F_M5o_ES_093l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_ES_093l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">079F_M1l_ES_093l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_ES_093l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">080F_M6g_ES_075r_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_075r_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">081F_M3l_ES_101l_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_101l_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">082F_M3o_ES_070r_6.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_070r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_070r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">083F_M1r_ES_075r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_ES_075r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">084F_M4r_ES_101l_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_101l_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">085F_M1o_ES_063l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_063l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">086F_M6m_ES_093l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_093l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">087F_M2l_ES_101l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_101l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">088F_M4l_ES_070r_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_070r_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">089F_M5l_ES_075r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_ES_075r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">090F_M4o_ES_075r_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_ES_075r_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">091F_M1o_ES_101l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_101l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">092F_M2o_ES_070r_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_070r_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">093F_M2l_ES_101l_15.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> ES_101l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_101l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">094F_M5d_ES_101l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_101l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">095F_M4r_ES_063l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_063l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">096F_M2o_ES_102l_26.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_102l_26.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">097F_M2d_ES_075r_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_ES_075r_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">098F_M2o_ES_070r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_070r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">099F_M4l_ES_070r_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_070r_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">100F_M1r_ES_075r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_ES_075r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">101F_M1d_ES_102l_26.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_102l_26.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">102F_M6m_ES_101l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_101l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">103F_M1d_ES_102r_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_102r_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">104F_M2o_ES_102r_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_102r_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">105F_M6m_ES_093l_10.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_093l_10.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">106F_M3l_ES_101l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_101l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">107F_M4o_ES_075r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_ES_075r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">108F_M5l_ES_075r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_ES_075r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">109F_M6m_ES_093l_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_093l_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">110F_M2o_ES_102r_9.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_102r_9.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">111F_M3l_ES_063r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_063r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">112F_M3d_ES_075r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_ES_075r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">113F_M4l_ES_070r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_070r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">114F_M3l_ES_063l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_063l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">115F_M1r_ES_075r_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_ES_075r_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">116F_M4l_ES_102r_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_102r_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">117F_M5d_ES_063r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_063r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">118F_M3o_ES_070r_31.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_070r_31.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">119F_M6m_ES_101l_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_101l_14.wav</t>
-  </si>
-  <si>
     <t>Ire020612_01_Yas020905_02</t>
   </si>
   <si>
@@ -906,698 +551,1058 @@
     <t xml:space="preserve">120F_M4d_ES_093l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_ES_093l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">121F_M3l_ES_101l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_101l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">122F_M5d_ES_101l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_101l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">123F_M1o_ES_063l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_063l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">124F_M2o_ES_102r_18.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2o_ES_102r_18.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">125F_M4r_ES_101l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_101l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">126F_M4l_ES_070r_31.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_070r_31.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">127F_M1d_ES_102r_18.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_102r_18.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">128F_M1r_ES_075r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_ES_075r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">129F_M3d_ES_075r_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_ES_075r_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">130F_M1d_ES_102r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_102r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">131F_M1d_ES_070r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_070r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">132F_M6m_ES_093l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_093l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">133F_M3o_ES_102r_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_102r_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">134F_M1l_ES_093l_10.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_ES_093l_10.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">135F_M5r_ES_102r_18.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_102r_18.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">136F_M1d_ES_070r_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_070r_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">137F_M6m_ES_102r_9.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_102r_9.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">138F_M5r_ES_102r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_102r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">139F_M3o_ES_102l_26.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_102l_26.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">140F_M3o_ES_102r_18.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_102r_18.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">141F_M3o_ES_070l_3.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_070l_3.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">142F_M1o_ES_101l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_101l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">143F_M3d_ES_075r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_ES_075r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">144F_M6g_ES_070r_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_070r_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">145F_M2l_ES_063l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_063l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">146F_M4r_ES_063r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_063r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">147F_M4d_ES_093l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_ES_093l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">148F_M3d_ES_075r_8.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_ES_075r_8.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">149F_M4l_ES_102r_9.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_102r_9.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">150F_M1o_ES_063r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_063r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">151F_M6g_ES_070r_1.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_070r_1.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">152F_M3o_ES_102r_9.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_102r_9.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">153F_M4l_ES_102l_26.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_102l_26.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">154F_M5r_ES_070r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_070r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">155F_M3l_ES_063r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3l_ES_063r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">156F_M5r_ES_102r_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_102r_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">157F_M6m_ES_093l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6m_ES_093l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">158F_M1l_ES_093l_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_ES_093l_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">159F_M4l_ES_070l_3.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4l_ES_070l_3.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">160F_M2d_ES_075r_17.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_ES_075r_17.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">161F_M5d_ES_063l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_063l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">162F_M6g_ES_075r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_075r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">163F_M5r_ES_070r_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5r_ES_070r_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">164F_M6g_ES_070r_31.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_070r_31.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">165F_M2l_ES_063l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2l_ES_063l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">166F_M4o_ES_075r_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_ES_075r_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">167F_M3o_ES_070r_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3o_ES_070r_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">168F_M1o_ES_101l_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1o_ES_101l_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">169F_M4r_ES_063l_5.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_063l_5.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">170F_M4r_ES_101l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_101l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">171F_M5d_ES_101l_12.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_101l_12.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">172F_M3r_ES_093l_15.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_ES_093l_15.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">173F_M6g_ES_063r_32.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_063r_32.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">174F_M1d_ES_070r_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1d_ES_070r_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">175F_M5d_ES_101l_14.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5d_ES_101l_14.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">176F_M4r_ES_063r_32.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4r_ES_063r_32.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">177F_M3r_ES_093l_16.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_ES_093l_16.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">178F_M5o_ES_093l_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_ES_093l_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">179F_M6g_ES_070r_6.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M6g_ES_070r_6.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">180F_M1l_AM007_1988_EP_SU2011_ADc_03.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> AM007_1988_EP_SU2011_ADc_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_AM007_1988_EP_SU2011_ADc_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">181F_M2r_AF002_1989_EP_SU2011_ADd_01.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> AF002_1989_EP_SU2011_ADd_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_AF002_1989_EP_SU2011_ADd_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">182F_M4d_AF002_1989_EP_SU2011_ADd_02.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> AF002_1989_EP_SU2011_ADd_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_AF002_1989_EP_SU2011_ADd_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">183F_M2r_AM007_1988_EP_SU2011_ADc_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_AM007_1988_EP_SU2011_ADc_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">184F_M4o_CH_1411a_03.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> CH_1411a_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_CH_1411a_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">185F_M4o_CH_1411b_04.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> CH_1411b_04.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_CH_1411b_04.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">186F_M4d_AM007_1988_EP_SU2011_ADc_01.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> AM007_1988_EP_SU2011_ADc_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_AM007_1988_EP_SU2011_ADc_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">187F_M5l_CH_1411a_01.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> CH_1411a_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_CH_1411a_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">188F_M4d_AM007_1988_EP_SU2011_ADc_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_AM007_1988_EP_SU2011_ADc_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">189F_M4o_CH_1411a_02.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> CH_1411a_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_CH_1411a_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">190F_M1r_CH_1411b_05.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> CH_1411b_05.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_CH_1411b_05.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">191F_M1r_CH_1411a_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_CH_1411a_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">192F_M5l_CH_1411b_04.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_CH_1411b_04.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">193F_M5o_AF002_1989_EP_SU2011_ADd_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_AF002_1989_EP_SU2011_ADd_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">194F_M2d_CH_1411b_04.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_CH_1411b_04.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">195F_M2d_CH_1411a_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_CH_1411a_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">196F_M3d_CH_1411b_04.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_CH_1411b_04.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">197F_M3d_CH_1411a_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_CH_1411a_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">198F_M1l_AM007_1988_EP_SU2011_ADc_02.wav </t>
   </si>
   <si>
     <t xml:space="preserve"> AM007_1988_EP_SU2011_ADc_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_AM007_1988_EP_SU2011_ADc_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">199F_M4o_CH_1411b_05.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_CH_1411b_05.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">200F_M5o_AM007_1988_EP_SU2011_ADc_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_AM007_1988_EP_SU2011_ADc_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">201F_M3r_AF002_1989_EP_SU2011_ADd_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_AF002_1989_EP_SU2011_ADd_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">202F_M3d_CH_1411a_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_CH_1411a_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">203F_M5l_CH_1411a_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_CH_1411a_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">204F_M5o_AF002_1989_EP_SU2011_ADd_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_AF002_1989_EP_SU2011_ADd_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">205F_M3r_AF002_1989_EP_SU2011_ADd_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_AF002_1989_EP_SU2011_ADd_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">206F_M1l_AM007_1988_EP_SU2011_ADc_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_AM007_1988_EP_SU2011_ADc_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">207F_M5l_CH_1411a_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_CH_1411a_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">208F_M2d_CH_1411a_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_CH_1411a_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">209F_M2d_CH_1411a_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_CH_1411a_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">210F_M3d_CH_1411a_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_CH_1411a_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">211F_M2r_AF002_1989_EP_SU2011_ADd_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_AF002_1989_EP_SU2011_ADd_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">212F_M5o_AM007_1988_EP_SU2011_ADc_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_AM007_1988_EP_SU2011_ADc_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">213F_M3d_CH_1411b_05.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3d_CH_1411b_05.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">214F_M3r_AM007_1988_EP_SU2011_ADc_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_AM007_1988_EP_SU2011_ADc_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">215F_M4d_AF002_1989_EP_SU2011_ADd_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_AF002_1989_EP_SU2011_ADd_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">216F_M1r_CH_1411b_04.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_CH_1411b_04.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">217F_M3r_AM007_1988_EP_SU2011_ADc_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_AM007_1988_EP_SU2011_ADc_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">218F_M5o_AM007_1988_EP_SU2011_ADc_03.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5o_AM007_1988_EP_SU2011_ADc_03.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">219F_M2r_AM007_1988_EP_SU2011_ADc_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_AM007_1988_EP_SU2011_ADc_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">220F_M1l_AF002_1989_EP_SU2011_ADd_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_AF002_1989_EP_SU2011_ADd_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">221F_M3r_AM007_1988_EP_SU2011_ADc_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M3r_AM007_1988_EP_SU2011_ADc_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">222F_M2r_AM007_1988_EP_SU2011_ADc_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2r_AM007_1988_EP_SU2011_ADc_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">223F_M1r_CH_1411a_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_CH_1411a_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">224F_M1r_CH_1411a_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1r_CH_1411a_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">225F_M4d_AM007_1988_EP_SU2011_ADc_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4d_AM007_1988_EP_SU2011_ADc_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">226F_M1l_AF002_1989_EP_SU2011_ADd_02.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M1l_AF002_1989_EP_SU2011_ADd_02.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">227F_M5l_CH_1411b_05.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M5l_CH_1411b_05.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">228F_M4o_CH_1411a_01.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M4o_CH_1411a_01.wav</t>
-  </si>
-  <si>
     <t xml:space="preserve">229F_M2d_CH_1411b_05.wav </t>
   </si>
   <si>
-    <t xml:space="preserve"> _M2d_CH_1411b_05.wav</t>
+    <t>M3l_ES_063l_5.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_063r_17.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_102r_8.wav</t>
+  </si>
+  <si>
+    <t>M2r_ES_093l_16.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_101l_14.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_101l_14.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_102l_26.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_070r_31.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_102r_12.wav</t>
+  </si>
+  <si>
+    <t>M4d_ES_093l_10.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_063r_32.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_101l_6.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_063r_16.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_063r_16.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_063r_16.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_070l_3.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_063l_12.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_063r_32.wav</t>
+  </si>
+  <si>
+    <t>M2r_ES_093l_5.wav</t>
+  </si>
+  <si>
+    <t>M4o_ES_075r_17.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_102r_8.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_070r_1.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_075r_8.wav</t>
+  </si>
+  <si>
+    <t>M3r_ES_093l_10.wav</t>
+  </si>
+  <si>
+    <t>M2r_ES_093l_15.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_102l_26.wav</t>
+  </si>
+  <si>
+    <t>M5o_ES_093l_10.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_070r_31.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_070l_3.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_101l_6.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_075r_6.wav</t>
+  </si>
+  <si>
+    <t>M4d_ES_093l_5.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_102r_18.wav</t>
+  </si>
+  <si>
+    <t>M3d_ES_075r_6.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_101l_1.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_101l_1.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_101l_12.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_102r_8.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_070r_1.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_070r_14.wav</t>
+  </si>
+  <si>
+    <t>M3r_ES_093l_6.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_101l_12.wav</t>
+  </si>
+  <si>
+    <t>M5o_ES_093l_16.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_102r_9.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_063l_5.wav</t>
+  </si>
+  <si>
+    <t>M5l_ES_075r_8.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_102r_9.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_101l_12.wav</t>
+  </si>
+  <si>
+    <t>M2d_ES_075r_6.wav</t>
+  </si>
+  <si>
+    <t>M4o_ES_075r_8.wav</t>
+  </si>
+  <si>
+    <t>M1l_ES_093l_15.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_063r_17.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_070l_3.wav</t>
+  </si>
+  <si>
+    <t>M1l_ES_093l_5.wav</t>
+  </si>
+  <si>
+    <t>M2r_ES_093l_6.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_063l_5.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_063r_16.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_101l_1.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_102r_8.wav</t>
+  </si>
+  <si>
+    <t>M5o_ES_093l_15.wav</t>
+  </si>
+  <si>
+    <t>M2d_ES_075r_8.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_101l_6.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_075r_17.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_101l_1.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_070l_3.wav</t>
+  </si>
+  <si>
+    <t>M3r_ES_093l_5.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_063r_32.wav</t>
+  </si>
+  <si>
+    <t>M5l_ES_075r_5.wav</t>
+  </si>
+  <si>
+    <t>M5l_ES_075r_17.wav</t>
+  </si>
+  <si>
+    <t>M2d_ES_075r_16.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_063r_16.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_063r_32.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_101l_1.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_102r_18.wav</t>
+  </si>
+  <si>
+    <t>M2r_ES_093l_10.wav</t>
+  </si>
+  <si>
+    <t>M1r_ES_075r_6.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_070r_31.wav</t>
+  </si>
+  <si>
+    <t>M4d_ES_093l_16.wav</t>
+  </si>
+  <si>
+    <t>M5o_ES_093l_5.wav</t>
+  </si>
+  <si>
+    <t>M1l_ES_093l_6.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_075r_5.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_101l_14.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_070r_6.wav</t>
+  </si>
+  <si>
+    <t>M1r_ES_075r_8.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_101l_1.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_063l_5.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_093l_15.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_101l_12.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_070r_14.wav</t>
+  </si>
+  <si>
+    <t>M5l_ES_075r_6.wav</t>
+  </si>
+  <si>
+    <t>M4o_ES_075r_5.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_101l_12.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_070r_1.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_101l_15.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_101l_15.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_063l_12.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_102l_26.wav</t>
+  </si>
+  <si>
+    <t>M2d_ES_075r_5.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_070r_6.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_070r_1.wav</t>
+  </si>
+  <si>
+    <t>M1r_ES_075r_17.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_102l_26.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_101l_15.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_102r_12.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_102r_12.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_093l_10.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_101l_15.wav</t>
+  </si>
+  <si>
+    <t>M4o_ES_075r_6.wav</t>
+  </si>
+  <si>
+    <t>M5l_ES_075r_16.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_093l_16.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_102r_9.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_063r_16.wav</t>
+  </si>
+  <si>
+    <t>M3d_ES_075r_16.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_070r_6.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_063l_12.wav</t>
+  </si>
+  <si>
+    <t>M1r_ES_075r_5.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_102r_12.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_063r_17.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_070r_31.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_101l_14.wav</t>
+  </si>
+  <si>
+    <t>M4d_ES_093l_6.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_101l_6.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_101l_6.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_063l_12.wav</t>
+  </si>
+  <si>
+    <t>M2o_ES_102r_18.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_101l_6.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_070r_31.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_102r_18.wav</t>
+  </si>
+  <si>
+    <t>M1r_ES_075r_16.wav</t>
+  </si>
+  <si>
+    <t>M3d_ES_075r_5.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_102r_8.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_070r_6.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_093l_6.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_102r_12.wav</t>
+  </si>
+  <si>
+    <t>M1l_ES_093l_10.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_102r_18.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_070r_1.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_102r_9.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_102r_8.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_102l_26.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_102r_18.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_070l_3.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_101l_15.wav</t>
+  </si>
+  <si>
+    <t>M3d_ES_075r_17.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_070r_14.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_063l_12.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_063r_17.wav</t>
+  </si>
+  <si>
+    <t>M4d_ES_093l_15.wav</t>
+  </si>
+  <si>
+    <t>M3d_ES_075r_8.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_102r_9.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_063r_17.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_070r_1.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_102r_9.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_102l_26.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_070r_6.wav</t>
+  </si>
+  <si>
+    <t>M3l_ES_063r_17.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_102r_12.wav</t>
+  </si>
+  <si>
+    <t>M6m_ES_093l_5.wav</t>
+  </si>
+  <si>
+    <t>M1l_ES_093l_16.wav</t>
+  </si>
+  <si>
+    <t>M4l_ES_070l_3.wav</t>
+  </si>
+  <si>
+    <t>M2d_ES_075r_17.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_063l_12.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_075r_16.wav</t>
+  </si>
+  <si>
+    <t>M5r_ES_070r_14.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_070r_31.wav</t>
+  </si>
+  <si>
+    <t>M2l_ES_063l_5.wav</t>
+  </si>
+  <si>
+    <t>M4o_ES_075r_16.wav</t>
+  </si>
+  <si>
+    <t>M3o_ES_070r_14.wav</t>
+  </si>
+  <si>
+    <t>M1o_ES_101l_14.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_063l_5.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_101l_15.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_101l_12.wav</t>
+  </si>
+  <si>
+    <t>M3r_ES_093l_15.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_063r_32.wav</t>
+  </si>
+  <si>
+    <t>M1d_ES_070r_14.wav</t>
+  </si>
+  <si>
+    <t>M5d_ES_101l_14.wav</t>
+  </si>
+  <si>
+    <t>M4r_ES_063r_32.wav</t>
+  </si>
+  <si>
+    <t>M3r_ES_093l_16.wav</t>
+  </si>
+  <si>
+    <t>M5o_ES_093l_6.wav</t>
+  </si>
+  <si>
+    <t>M6g_ES_070r_6.wav</t>
+  </si>
+  <si>
+    <t>M1l_AM007_1988_EP_SU2011_ADc_03.wav</t>
+  </si>
+  <si>
+    <t>M2r_AF002_1989_EP_SU2011_ADd_01.wav</t>
+  </si>
+  <si>
+    <t>M4d_AF002_1989_EP_SU2011_ADd_02.wav</t>
+  </si>
+  <si>
+    <t>M2r_AM007_1988_EP_SU2011_ADc_03.wav</t>
+  </si>
+  <si>
+    <t>M4o_CH_1411a_03.wav</t>
+  </si>
+  <si>
+    <t>M4o_CH_1411b_04.wav</t>
+  </si>
+  <si>
+    <t>M4d_AM007_1988_EP_SU2011_ADc_01.wav</t>
+  </si>
+  <si>
+    <t>M5l_CH_1411a_01.wav</t>
+  </si>
+  <si>
+    <t>M4d_AM007_1988_EP_SU2011_ADc_03.wav</t>
+  </si>
+  <si>
+    <t>M4o_CH_1411a_02.wav</t>
+  </si>
+  <si>
+    <t>M1r_CH_1411b_05.wav</t>
+  </si>
+  <si>
+    <t>M1r_CH_1411a_03.wav</t>
+  </si>
+  <si>
+    <t>M5l_CH_1411b_04.wav</t>
+  </si>
+  <si>
+    <t>M5o_AF002_1989_EP_SU2011_ADd_01.wav</t>
+  </si>
+  <si>
+    <t>M2d_CH_1411b_04.wav</t>
+  </si>
+  <si>
+    <t>M2d_CH_1411a_03.wav</t>
+  </si>
+  <si>
+    <t>M3d_CH_1411b_04.wav</t>
+  </si>
+  <si>
+    <t>M3d_CH_1411a_03.wav</t>
+  </si>
+  <si>
+    <t>M1l_AM007_1988_EP_SU2011_ADc_02.wav</t>
+  </si>
+  <si>
+    <t>M4o_CH_1411b_05.wav</t>
+  </si>
+  <si>
+    <t>M5o_AM007_1988_EP_SU2011_ADc_01.wav</t>
+  </si>
+  <si>
+    <t>M3r_AF002_1989_EP_SU2011_ADd_01.wav</t>
+  </si>
+  <si>
+    <t>M3d_CH_1411a_01.wav</t>
+  </si>
+  <si>
+    <t>M5l_CH_1411a_03.wav</t>
+  </si>
+  <si>
+    <t>M5o_AF002_1989_EP_SU2011_ADd_02.wav</t>
+  </si>
+  <si>
+    <t>M3r_AF002_1989_EP_SU2011_ADd_02.wav</t>
+  </si>
+  <si>
+    <t>M1l_AM007_1988_EP_SU2011_ADc_01.wav</t>
+  </si>
+  <si>
+    <t>M5l_CH_1411a_02.wav</t>
+  </si>
+  <si>
+    <t>M2d_CH_1411a_01.wav</t>
+  </si>
+  <si>
+    <t>M2d_CH_1411a_02.wav</t>
+  </si>
+  <si>
+    <t>M3d_CH_1411a_02.wav</t>
+  </si>
+  <si>
+    <t>M2r_AF002_1989_EP_SU2011_ADd_02.wav</t>
+  </si>
+  <si>
+    <t>M5o_AM007_1988_EP_SU2011_ADc_02.wav</t>
+  </si>
+  <si>
+    <t>M3d_CH_1411b_05.wav</t>
+  </si>
+  <si>
+    <t>M3r_AM007_1988_EP_SU2011_ADc_03.wav</t>
+  </si>
+  <si>
+    <t>M4d_AF002_1989_EP_SU2011_ADd_01.wav</t>
+  </si>
+  <si>
+    <t>M1r_CH_1411b_04.wav</t>
+  </si>
+  <si>
+    <t>M3r_AM007_1988_EP_SU2011_ADc_02.wav</t>
+  </si>
+  <si>
+    <t>M5o_AM007_1988_EP_SU2011_ADc_03.wav</t>
+  </si>
+  <si>
+    <t>M2r_AM007_1988_EP_SU2011_ADc_01.wav</t>
+  </si>
+  <si>
+    <t>M1l_AF002_1989_EP_SU2011_ADd_01.wav</t>
+  </si>
+  <si>
+    <t>M3r_AM007_1988_EP_SU2011_ADc_01.wav</t>
+  </si>
+  <si>
+    <t>M2r_AM007_1988_EP_SU2011_ADc_02.wav</t>
+  </si>
+  <si>
+    <t>M1r_CH_1411a_02.wav</t>
+  </si>
+  <si>
+    <t>M1r_CH_1411a_01.wav</t>
+  </si>
+  <si>
+    <t>M4d_AM007_1988_EP_SU2011_ADc_02.wav</t>
+  </si>
+  <si>
+    <t>M1l_AF002_1989_EP_SU2011_ADd_02.wav</t>
+  </si>
+  <si>
+    <t>M5l_CH_1411b_05.wav</t>
+  </si>
+  <si>
+    <t>M4o_CH_1411a_01.wav</t>
+  </si>
+  <si>
+    <t>M2d_CH_1411b_05.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1702,9 +1707,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1742,7 +1747,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1848,7 +1853,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1990,7 +1995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2000,19 +2005,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE9719-3094-470E-90B8-80C43AED03F7}">
   <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="B200" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.3984375" customWidth="1"/>
+    <col min="3" max="3" width="38.73046875" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2039,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2058,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
       <c r="E3" s="5">
         <v>4.5</v>
@@ -2090,18 +2095,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -2122,18 +2127,18 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="E5" s="5">
         <v>4.5</v>
@@ -2154,18 +2159,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -2186,18 +2191,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -2218,18 +2223,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="E8" s="5">
         <v>4.3</v>
@@ -2250,18 +2255,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="E9" s="5">
         <v>1.6</v>
@@ -2282,18 +2287,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="E10" s="5">
         <v>3.5</v>
@@ -2314,18 +2319,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="E11" s="5">
         <v>2.7</v>
@@ -2346,18 +2351,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="E12" s="5">
         <v>2.5</v>
@@ -2378,18 +2383,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="E13" s="5">
         <v>4.0999999999999996</v>
@@ -2410,18 +2415,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="E14" s="5">
         <v>1.1000000000000001</v>
@@ -2442,18 +2447,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="E15" s="5">
         <v>3.5</v>
@@ -2474,18 +2479,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="E16" s="5">
         <v>4</v>
@@ -2506,18 +2511,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="E17" s="5">
         <v>3.6</v>
@@ -2538,18 +2543,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="E18" s="5">
         <v>4.3</v>
@@ -2570,18 +2575,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="E19" s="5">
         <v>1.3</v>
@@ -2602,18 +2607,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="E20" s="5">
         <v>4.2</v>
@@ -2634,18 +2639,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="E21" s="5">
         <v>4</v>
@@ -2666,18 +2671,18 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="E22" s="5">
         <v>2.9</v>
@@ -2698,18 +2703,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="E23" s="5">
         <v>3.3</v>
@@ -2730,18 +2735,18 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="E24" s="5">
         <v>3.3</v>
@@ -2762,18 +2767,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="E25" s="5">
         <v>3.5</v>
@@ -2794,18 +2799,18 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>70</v>
+        <v>313</v>
       </c>
       <c r="E26" s="5">
         <v>2.1</v>
@@ -2826,18 +2831,18 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="E27" s="5">
         <v>3.1</v>
@@ -2858,18 +2863,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="E28" s="5">
         <v>4.3</v>
@@ -2890,18 +2895,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="E29" s="5">
         <v>3.5</v>
@@ -2922,18 +2927,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="E30" s="5">
         <v>4.0999999999999996</v>
@@ -2954,18 +2959,18 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="E31" s="5">
         <v>2.7</v>
@@ -2986,18 +2991,18 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="E32" s="5">
         <v>3.7</v>
@@ -3018,18 +3023,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>320</v>
       </c>
       <c r="E33" s="5">
         <v>1.5</v>
@@ -3050,18 +3055,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
       <c r="E34" s="5">
         <v>2.9</v>
@@ -3082,18 +3087,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="E35" s="5">
         <v>2</v>
@@ -3114,18 +3119,18 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="E36" s="5">
         <v>2.7</v>
@@ -3146,18 +3151,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="E37" s="5">
         <v>3.3</v>
@@ -3178,18 +3183,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="E38" s="5">
         <v>1.2</v>
@@ -3210,18 +3215,18 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="E39" s="5">
         <v>1.6</v>
@@ -3242,18 +3247,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>103</v>
+        <v>327</v>
       </c>
       <c r="E40" s="5">
         <v>3.1</v>
@@ -3274,18 +3279,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="E41" s="5">
         <v>3.5</v>
@@ -3306,18 +3311,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="E42" s="5">
         <v>3.6</v>
@@ -3338,18 +3343,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>111</v>
+        <v>330</v>
       </c>
       <c r="E43" s="5">
         <v>3.7</v>
@@ -3370,18 +3375,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="E44" s="5">
         <v>2.7</v>
@@ -3402,18 +3407,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>115</v>
+        <v>332</v>
       </c>
       <c r="E45" s="5">
         <v>3.5</v>
@@ -3434,18 +3439,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>118</v>
+        <v>333</v>
       </c>
       <c r="E46" s="5">
         <v>4.3</v>
@@ -3466,18 +3471,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="E47" s="5">
         <v>1.5</v>
@@ -3498,18 +3503,18 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>122</v>
+        <v>335</v>
       </c>
       <c r="E48" s="5">
         <v>3.7</v>
@@ -3530,18 +3535,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>124</v>
+        <v>336</v>
       </c>
       <c r="E49" s="5">
         <v>4</v>
@@ -3562,18 +3567,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>126</v>
+        <v>337</v>
       </c>
       <c r="E50" s="5">
         <v>3.6</v>
@@ -3594,18 +3599,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>128</v>
+        <v>338</v>
       </c>
       <c r="E51" s="5">
         <v>3.8</v>
@@ -3626,18 +3631,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="E52" s="5">
         <v>1.5</v>
@@ -3658,18 +3663,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="E53" s="5">
         <v>4.5999999999999996</v>
@@ -3690,18 +3695,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="E54" s="5">
         <v>3.6</v>
@@ -3722,18 +3727,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>136</v>
+        <v>342</v>
       </c>
       <c r="E55" s="5">
         <v>3.6</v>
@@ -3754,18 +3759,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c r="E56" s="5">
         <v>4.4000000000000004</v>
@@ -3786,18 +3791,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="E57" s="5">
         <v>4.2</v>
@@ -3818,18 +3823,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="E58" s="5">
         <v>3.4</v>
@@ -3850,18 +3855,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="E59" s="5">
         <v>3.1</v>
@@ -3882,18 +3887,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>146</v>
+        <v>347</v>
       </c>
       <c r="E60" s="5">
         <v>3.2</v>
@@ -3914,18 +3919,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>148</v>
+        <v>348</v>
       </c>
       <c r="E61" s="5">
         <v>1.9</v>
@@ -3946,18 +3951,18 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>150</v>
+        <v>349</v>
       </c>
       <c r="E62" s="5">
         <v>3</v>
@@ -3978,18 +3983,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="E63" s="5">
         <v>2</v>
@@ -4010,18 +4015,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="E64" s="5">
         <v>4.2</v>
@@ -4042,18 +4047,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>156</v>
+        <v>352</v>
       </c>
       <c r="E65" s="5">
         <v>2.9</v>
@@ -4074,18 +4079,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="E66" s="5">
         <v>3</v>
@@ -4106,18 +4111,18 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="E67" s="5">
         <v>3.6</v>
@@ -4138,18 +4143,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>162</v>
+        <v>355</v>
       </c>
       <c r="E68" s="5">
         <v>3.9</v>
@@ -4170,18 +4175,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="E69" s="5">
         <v>3.6</v>
@@ -4202,18 +4207,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="E70" s="5">
         <v>4</v>
@@ -4234,18 +4239,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="E71" s="5">
         <v>4.0999999999999996</v>
@@ -4266,18 +4271,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="E72" s="5">
         <v>3.1</v>
@@ -4298,18 +4303,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="E73" s="5">
         <v>1.9</v>
@@ -4330,18 +4335,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="E74" s="5">
         <v>3.7</v>
@@ -4362,18 +4367,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="E75" s="5">
         <v>4.0999999999999996</v>
@@ -4394,18 +4399,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="E76" s="5">
         <v>2</v>
@@ -4426,18 +4431,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="E77" s="5">
         <v>3.2</v>
@@ -4458,18 +4463,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>184</v>
+        <v>365</v>
       </c>
       <c r="E78" s="5">
         <v>3.7</v>
@@ -4490,18 +4495,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="E79" s="5">
         <v>3.6</v>
@@ -4522,18 +4527,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>188</v>
+        <v>367</v>
       </c>
       <c r="E80" s="5">
         <v>4</v>
@@ -4554,18 +4559,18 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="E81" s="5">
         <v>4.0999999999999996</v>
@@ -4586,18 +4591,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>192</v>
+        <v>369</v>
       </c>
       <c r="E82" s="5">
         <v>4.3</v>
@@ -4618,18 +4623,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>194</v>
+        <v>370</v>
       </c>
       <c r="E83" s="5">
         <v>2.1</v>
@@ -4650,18 +4655,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>196</v>
+        <v>371</v>
       </c>
       <c r="E84" s="5">
         <v>3.1</v>
@@ -4682,18 +4687,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>199</v>
+        <v>372</v>
       </c>
       <c r="E85" s="5">
         <v>4.2</v>
@@ -4714,18 +4719,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>201</v>
+        <v>373</v>
       </c>
       <c r="E86" s="5">
         <v>4</v>
@@ -4746,18 +4751,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
       <c r="E87" s="5">
         <v>2.5</v>
@@ -4778,18 +4783,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>205</v>
+        <v>375</v>
       </c>
       <c r="E88" s="5">
         <v>4.2</v>
@@ -4810,18 +4815,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>207</v>
+        <v>376</v>
       </c>
       <c r="E89" s="5">
         <v>1.4</v>
@@ -4842,18 +4847,18 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="E90" s="5">
         <v>3.5</v>
@@ -4874,18 +4879,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="E91" s="5">
         <v>2.5</v>
@@ -4906,18 +4911,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="E92" s="5">
         <v>3.6</v>
@@ -4938,18 +4943,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="E93" s="5">
         <v>3.3</v>
@@ -4970,18 +4975,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="E94" s="5">
         <v>4.5</v>
@@ -5002,18 +5007,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>219</v>
+        <v>382</v>
       </c>
       <c r="E95" s="5">
         <v>3.1</v>
@@ -5034,18 +5039,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="E96" s="5">
         <v>3.8</v>
@@ -5066,18 +5071,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="E97" s="5">
         <v>3.6</v>
@@ -5098,18 +5103,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>226</v>
+        <v>385</v>
       </c>
       <c r="E98" s="5">
         <v>1.1000000000000001</v>
@@ -5130,18 +5135,18 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>228</v>
+        <v>386</v>
       </c>
       <c r="E99" s="5">
         <v>3.6</v>
@@ -5162,18 +5167,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="E100" s="5">
         <v>3.2</v>
@@ -5194,18 +5199,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="E101" s="5">
         <v>3.8</v>
@@ -5226,18 +5231,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="E102" s="5">
         <v>2</v>
@@ -5258,18 +5263,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>236</v>
+        <v>390</v>
       </c>
       <c r="E103" s="5">
         <v>3.9</v>
@@ -5290,18 +5295,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>238</v>
+        <v>391</v>
       </c>
       <c r="E104" s="5">
         <v>4</v>
@@ -5322,18 +5327,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="E105" s="5">
         <v>1.7</v>
@@ -5354,18 +5359,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>242</v>
+        <v>393</v>
       </c>
       <c r="E106" s="5">
         <v>3.8</v>
@@ -5386,18 +5391,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>244</v>
+        <v>394</v>
       </c>
       <c r="E107" s="5">
         <v>4</v>
@@ -5418,18 +5423,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>246</v>
+        <v>395</v>
       </c>
       <c r="E108" s="5">
         <v>1.4</v>
@@ -5450,18 +5455,18 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>248</v>
+        <v>396</v>
       </c>
       <c r="E109" s="5">
         <v>3.7</v>
@@ -5482,18 +5487,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>250</v>
+        <v>397</v>
       </c>
       <c r="E110" s="5">
         <v>2.9</v>
@@ -5514,18 +5519,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>252</v>
+        <v>398</v>
       </c>
       <c r="E111" s="5">
         <v>3.2</v>
@@ -5546,18 +5551,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>254</v>
+        <v>399</v>
       </c>
       <c r="E112" s="5">
         <v>1.9</v>
@@ -5578,18 +5583,18 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="E113" s="5">
         <v>3.4</v>
@@ -5610,18 +5615,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="E114" s="5">
         <v>3.6</v>
@@ -5642,18 +5647,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>260</v>
+        <v>402</v>
       </c>
       <c r="E115" s="5">
         <v>3.7</v>
@@ -5674,18 +5679,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>262</v>
+        <v>403</v>
       </c>
       <c r="E116" s="5">
         <v>2.2999999999999998</v>
@@ -5706,18 +5711,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>264</v>
+        <v>404</v>
       </c>
       <c r="E117" s="5">
         <v>3.7</v>
@@ -5738,18 +5743,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>266</v>
+        <v>405</v>
       </c>
       <c r="E118" s="5">
         <v>3.1</v>
@@ -5770,18 +5775,18 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>268</v>
+        <v>406</v>
       </c>
       <c r="E119" s="5">
         <v>2.9</v>
@@ -5802,18 +5807,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="E120" s="5">
         <v>3.8</v>
@@ -5834,18 +5839,18 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>272</v>
+        <v>408</v>
       </c>
       <c r="E121" s="5">
         <v>4.5</v>
@@ -5866,18 +5871,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>274</v>
+        <v>409</v>
       </c>
       <c r="E122" s="5">
         <v>2</v>
@@ -5898,18 +5903,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="E123" s="5">
         <v>2.4</v>
@@ -5930,18 +5935,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>278</v>
+        <v>158</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="E124" s="5">
         <v>2.8</v>
@@ -5962,18 +5967,18 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="E125" s="5">
         <v>2.6</v>
@@ -5994,18 +5999,18 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="E126" s="5">
         <v>2.8</v>
@@ -6026,18 +6031,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="E127" s="5">
         <v>3.6</v>
@@ -6058,18 +6063,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="E128" s="5">
         <v>3.8</v>
@@ -6090,18 +6095,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>293</v>
+        <v>411</v>
       </c>
       <c r="E129" s="5">
         <v>4.3</v>
@@ -6122,18 +6127,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>295</v>
+        <v>412</v>
       </c>
       <c r="E130" s="5">
         <v>3.7</v>
@@ -6154,18 +6159,18 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>296</v>
+        <v>173</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="E131" s="5">
         <v>4</v>
@@ -6186,18 +6191,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>299</v>
+        <v>414</v>
       </c>
       <c r="E132" s="5">
         <v>4.5</v>
@@ -6218,18 +6223,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>301</v>
+        <v>415</v>
       </c>
       <c r="E133" s="5">
         <v>3.8</v>
@@ -6250,18 +6255,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
       <c r="E134" s="5">
         <v>4.0999999999999996</v>
@@ -6282,18 +6287,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="E135" s="5">
         <v>4.5999999999999996</v>
@@ -6314,18 +6319,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>307</v>
+        <v>418</v>
       </c>
       <c r="E136" s="5">
         <v>3.9</v>
@@ -6346,18 +6351,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>308</v>
+        <v>179</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
       <c r="E137" s="5">
         <v>3.8</v>
@@ -6378,18 +6383,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>311</v>
+        <v>420</v>
       </c>
       <c r="E138" s="5">
         <v>4.0999999999999996</v>
@@ -6410,18 +6415,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>312</v>
+        <v>181</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="E139" s="5">
         <v>3.6</v>
@@ -6442,18 +6447,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>315</v>
+        <v>422</v>
       </c>
       <c r="E140" s="5">
         <v>2.6</v>
@@ -6474,18 +6479,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="E141" s="5">
         <v>4</v>
@@ -6506,18 +6511,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>319</v>
+        <v>424</v>
       </c>
       <c r="E142" s="5">
         <v>4.5999999999999996</v>
@@ -6538,18 +6543,18 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>321</v>
+        <v>425</v>
       </c>
       <c r="E143" s="5">
         <v>3.7</v>
@@ -6570,18 +6575,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>323</v>
+        <v>426</v>
       </c>
       <c r="E144" s="5">
         <v>3.7</v>
@@ -6602,18 +6607,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>324</v>
+        <v>187</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="E145" s="5">
         <v>1.6</v>
@@ -6634,18 +6639,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>327</v>
+        <v>428</v>
       </c>
       <c r="E146" s="5">
         <v>4.0999999999999996</v>
@@ -6666,18 +6671,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="E147" s="5">
         <v>3.9</v>
@@ -6698,18 +6703,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>331</v>
+        <v>430</v>
       </c>
       <c r="E148" s="5">
         <v>3.4</v>
@@ -6730,18 +6735,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="E149" s="5">
         <v>3.8</v>
@@ -6762,18 +6767,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>334</v>
+        <v>192</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="E150" s="5">
         <v>3.8</v>
@@ -6794,18 +6799,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>336</v>
+        <v>193</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="E151" s="5">
         <v>3.1</v>
@@ -6826,18 +6831,18 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
         <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>338</v>
+        <v>194</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>339</v>
+        <v>434</v>
       </c>
       <c r="E152" s="5">
         <v>3.5</v>
@@ -6858,18 +6863,18 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
         <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
       <c r="E153" s="5">
         <v>3.9</v>
@@ -6890,18 +6895,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
         <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>342</v>
+        <v>196</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="E154" s="5">
         <v>2.1</v>
@@ -6922,18 +6927,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
         <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>344</v>
+        <v>197</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
       <c r="E155" s="5">
         <v>3</v>
@@ -6954,18 +6959,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
         <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>346</v>
+        <v>198</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>347</v>
+        <v>438</v>
       </c>
       <c r="E156" s="5">
         <v>3.3</v>
@@ -6986,18 +6991,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="E157" s="5">
         <v>2.2999999999999998</v>
@@ -7018,18 +7023,18 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>351</v>
+        <v>440</v>
       </c>
       <c r="E158" s="5">
         <v>4.2</v>
@@ -7050,18 +7055,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>352</v>
+        <v>201</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>353</v>
+        <v>441</v>
       </c>
       <c r="E159" s="5">
         <v>2.7</v>
@@ -7082,18 +7087,18 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
         <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>354</v>
+        <v>202</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="E160" s="5">
         <v>4.0999999999999996</v>
@@ -7114,18 +7119,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="E161" s="5">
         <v>2.5</v>
@@ -7146,18 +7151,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
         <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>358</v>
+        <v>204</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="E162" s="5">
         <v>3.9</v>
@@ -7178,18 +7183,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="E163" s="5">
         <v>4.0999999999999996</v>
@@ -7210,18 +7215,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>363</v>
+        <v>446</v>
       </c>
       <c r="E164" s="5">
         <v>4.5</v>
@@ -7242,18 +7247,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>364</v>
+        <v>207</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E165" s="5">
         <v>2</v>
@@ -7274,18 +7279,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166" s="2">
         <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>366</v>
+        <v>208</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>367</v>
+        <v>448</v>
       </c>
       <c r="E166" s="5">
         <v>3.8</v>
@@ -7306,18 +7311,18 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167" s="2">
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>368</v>
+        <v>209</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>369</v>
+        <v>449</v>
       </c>
       <c r="E167" s="5">
         <v>2.7</v>
@@ -7338,18 +7343,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168" s="2">
         <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>370</v>
+        <v>210</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="E168" s="5">
         <v>3.9</v>
@@ -7370,18 +7375,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="E169" s="5">
         <v>3.7</v>
@@ -7402,18 +7407,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
         <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>374</v>
+        <v>212</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="E170" s="5">
         <v>2.8</v>
@@ -7434,18 +7439,18 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
         <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>376</v>
+        <v>213</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>377</v>
+        <v>453</v>
       </c>
       <c r="E171" s="5">
         <v>3.8</v>
@@ -7466,18 +7471,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172" s="2">
         <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>378</v>
+        <v>214</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>379</v>
+        <v>454</v>
       </c>
       <c r="E172" s="5">
         <v>2.2999999999999998</v>
@@ -7498,18 +7503,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173" s="2">
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="E173" s="5">
         <v>5</v>
@@ -7530,18 +7535,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174" s="2">
         <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>382</v>
+        <v>216</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="E174" s="5">
         <v>2.5</v>
@@ -7562,18 +7567,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A175" s="2">
         <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>385</v>
+        <v>457</v>
       </c>
       <c r="E175" s="5">
         <v>3.9</v>
@@ -7594,18 +7599,18 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176" s="2">
         <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>387</v>
+        <v>458</v>
       </c>
       <c r="E176" s="5">
         <v>4.3</v>
@@ -7626,18 +7631,18 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177" s="2">
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>388</v>
+        <v>219</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="E177" s="5">
         <v>2.8</v>
@@ -7658,18 +7663,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178" s="2">
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="E178" s="5">
         <v>2</v>
@@ -7690,18 +7695,18 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179" s="2">
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>392</v>
+        <v>221</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="E179" s="5">
         <v>3.8</v>
@@ -7722,18 +7727,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180" s="2">
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="E180" s="5">
         <v>4.5999999999999996</v>
@@ -7754,18 +7759,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181" s="2">
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>396</v>
+        <v>223</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="E181" s="5">
         <v>2.2999999999999998</v>
@@ -7786,18 +7791,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182" s="2">
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>398</v>
+        <v>224</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="E182" s="5">
         <v>4.4000000000000004</v>
@@ -7818,18 +7823,18 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183" s="2">
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="E183" s="5">
         <v>3.1</v>
@@ -7850,18 +7855,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A184" s="2">
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="E184" s="5">
         <v>2.5</v>
@@ -7882,18 +7887,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A185" s="2">
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>404</v>
+        <v>227</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="E185" s="5">
         <v>3.7</v>
@@ -7914,18 +7919,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A186" s="2">
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>406</v>
+        <v>228</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="E186" s="5">
         <v>3.9</v>
@@ -7946,18 +7951,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A187" s="2">
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>408</v>
+        <v>229</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="E187" s="5">
         <v>3.2</v>
@@ -7978,18 +7983,18 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188" s="2">
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>411</v>
+        <v>231</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="E188" s="5">
         <v>4.3</v>
@@ -8010,18 +8015,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A189" s="2">
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>413</v>
+        <v>232</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>414</v>
+        <v>233</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="E189" s="5">
         <v>3.6</v>
@@ -8042,18 +8047,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A190" s="2">
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="E190" s="5">
         <v>3.6</v>
@@ -8074,18 +8079,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A191" s="2">
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>419</v>
+        <v>236</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>411</v>
+        <v>231</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="E191" s="5">
         <v>3.8</v>
@@ -8106,18 +8111,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A192" s="2">
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>421</v>
+        <v>237</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>422</v>
+        <v>238</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="E192" s="5">
         <v>2.9</v>
@@ -8138,18 +8143,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A193" s="2">
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>424</v>
+        <v>239</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="E193" s="5">
         <v>3.7</v>
@@ -8170,18 +8175,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A194" s="2">
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>427</v>
+        <v>241</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="E194" s="5">
         <v>1.4</v>
@@ -8202,18 +8207,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A195" s="2">
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>430</v>
+        <v>243</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>431</v>
+        <v>244</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="E195" s="5">
         <v>3</v>
@@ -8234,18 +8239,18 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A196" s="2">
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>433</v>
+        <v>245</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>411</v>
+        <v>231</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="E196" s="5">
         <v>3.5</v>
@@ -8266,18 +8271,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A197" s="2">
         <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>435</v>
+        <v>246</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>436</v>
+        <v>247</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="E197" s="5">
         <v>3.6</v>
@@ -8298,18 +8303,18 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A198" s="2">
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="E198" s="5">
         <v>3</v>
@@ -8330,18 +8335,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A199" s="2">
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>441</v>
+        <v>250</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>422</v>
+        <v>238</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="E199" s="5">
         <v>4</v>
@@ -8362,18 +8367,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A200" s="2">
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>443</v>
+        <v>251</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="E200" s="5">
         <v>2.8</v>
@@ -8394,18 +8399,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A201" s="2">
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>445</v>
+        <v>252</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>414</v>
+        <v>233</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="E201" s="5">
         <v>3.5</v>
@@ -8426,18 +8431,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A202" s="2">
         <v>200</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>447</v>
+        <v>253</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="E202" s="5">
         <v>3.3</v>
@@ -8458,18 +8463,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A203" s="2">
         <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>449</v>
+        <v>254</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>422</v>
+        <v>238</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="E203" s="5">
         <v>3.8</v>
@@ -8490,18 +8495,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A204" s="2">
         <v>202</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>451</v>
+        <v>255</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="E204" s="5">
         <v>3.8</v>
@@ -8522,18 +8527,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A205" s="2">
         <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>453</v>
+        <v>256</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>422</v>
+        <v>238</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="E205" s="5">
         <v>3.7</v>
@@ -8554,18 +8559,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A206" s="2">
         <v>204</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>455</v>
+        <v>257</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="E206" s="5">
         <v>4.3</v>
@@ -8586,18 +8591,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A207" s="2">
         <v>205</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>458</v>
+        <v>259</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="E207" s="5">
         <v>3.9</v>
@@ -8618,18 +8623,18 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A208" s="2">
         <v>206</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="E208" s="5">
         <v>1.2</v>
@@ -8650,18 +8655,18 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209" s="2">
         <v>207</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>462</v>
+        <v>261</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>414</v>
+        <v>233</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="E209" s="5">
         <v>3.8</v>
@@ -8682,18 +8687,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210" s="2">
         <v>208</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>464</v>
+        <v>262</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>431</v>
+        <v>244</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="E210" s="5">
         <v>3.2</v>
@@ -8714,18 +8719,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211" s="2">
         <v>209</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>466</v>
+        <v>263</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>422</v>
+        <v>238</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="E211" s="5">
         <v>3.9</v>
@@ -8746,18 +8751,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212" s="2">
         <v>210</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>468</v>
+        <v>264</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="E212" s="5">
         <v>3.8</v>
@@ -8778,18 +8783,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213" s="2">
         <v>211</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>470</v>
+        <v>265</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="E213" s="5">
         <v>3.6</v>
@@ -8810,18 +8815,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214" s="2">
         <v>212</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>472</v>
+        <v>266</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="E214" s="5">
         <v>1.3</v>
@@ -8842,18 +8847,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215" s="2">
         <v>213</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>474</v>
+        <v>267</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>436</v>
+        <v>247</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="E215" s="5">
         <v>3.6</v>
@@ -8874,18 +8879,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216" s="2">
         <v>214</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>476</v>
+        <v>268</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>431</v>
+        <v>244</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="E216" s="5">
         <v>3.7</v>
@@ -8906,18 +8911,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217" s="2">
         <v>215</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>478</v>
+        <v>269</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>436</v>
+        <v>247</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="E217" s="5">
         <v>4</v>
@@ -8938,18 +8943,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218" s="2">
         <v>216</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>436</v>
+        <v>247</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="E218" s="5">
         <v>3.1</v>
@@ -8970,18 +8975,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219" s="2">
         <v>217</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>482</v>
+        <v>271</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="E219" s="5">
         <v>3.2</v>
@@ -9002,18 +9007,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220" s="2">
         <v>218</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>484</v>
+        <v>272</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="E220" s="5">
         <v>4.3</v>
@@ -9034,18 +9039,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221" s="2">
         <v>219</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>486</v>
+        <v>273</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="E221" s="5">
         <v>2.9</v>
@@ -9066,18 +9071,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222" s="2">
         <v>220</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>488</v>
+        <v>274</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>411</v>
+        <v>231</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="E222" s="5">
         <v>4.9000000000000004</v>
@@ -9098,18 +9103,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223" s="2">
         <v>221</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>490</v>
+        <v>275</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>414</v>
+        <v>233</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="E223" s="5">
         <v>3</v>
@@ -9130,18 +9135,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224" s="2">
         <v>222</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>492</v>
+        <v>276</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="E224" s="5">
         <v>4.4000000000000004</v>
@@ -9162,18 +9167,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225" s="2">
         <v>223</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>494</v>
+        <v>277</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="E225" s="5">
         <v>4.4000000000000004</v>
@@ -9194,18 +9199,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226" s="2">
         <v>224</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>496</v>
+        <v>278</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>411</v>
+        <v>231</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="E226" s="5">
         <v>3.8</v>
@@ -9226,18 +9231,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227" s="2">
         <v>225</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>498</v>
+        <v>279</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E227" s="5">
         <v>1.6</v>
@@ -9258,18 +9263,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228" s="2">
         <v>226</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>414</v>
+        <v>233</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E228" s="5">
         <v>5</v>
@@ -9290,18 +9295,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229" s="2">
         <v>227</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E229" s="5">
         <v>1.8</v>
@@ -9322,18 +9327,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230" s="2">
         <v>228</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E230" s="5">
         <v>4</v>
@@ -9354,18 +9359,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231" s="2">
         <v>229</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>506</v>
+        <v>283</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>436</v>
+        <v>247</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E231" s="5">
         <v>3.8</v>
@@ -9386,18 +9391,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232" s="2">
         <v>230</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>508</v>
+        <v>284</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>431</v>
+        <v>244</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E232" s="5">
         <v>4.3</v>
@@ -9418,18 +9423,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233" s="2">
         <v>231</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>510</v>
+        <v>285</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E233" s="5">
         <v>3.3</v>
@@ -9450,18 +9455,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234" s="2">
         <v>232</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>512</v>
+        <v>286</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E234" s="5">
         <v>4.4000000000000004</v>
@@ -9482,18 +9487,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235" s="2">
         <v>233</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>514</v>
+        <v>287</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E235" s="5">
         <v>3.6</v>
@@ -9514,18 +9519,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236" s="2">
         <v>234</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>516</v>
+        <v>288</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>431</v>
+        <v>244</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E236" s="5">
         <v>3.9</v>
@@ -9546,15 +9551,15 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237" s="2">
         <v>235</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>518</v>
+        <v>289</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>519</v>
